--- a/published-data/fonds-solidarite/fds-2022-05-18/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-18/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -8560,13 +8560,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>21869</v>
+        <v>21870</v>
       </c>
       <c r="D160" t="n">
         <v>2289</v>
       </c>
       <c r="E160" t="n">
-        <v>119312313</v>
+        <v>119313102</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -9376,13 +9376,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>41185</v>
+        <v>41188</v>
       </c>
       <c r="D176" t="n">
         <v>5280</v>
       </c>
       <c r="E176" t="n">
-        <v>86421681</v>
+        <v>86424125</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -9427,13 +9427,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>55662</v>
+        <v>55665</v>
       </c>
       <c r="D177" t="n">
         <v>5882</v>
       </c>
       <c r="E177" t="n">
-        <v>356235324</v>
+        <v>356249561</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -9631,13 +9631,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>43588</v>
+        <v>43589</v>
       </c>
       <c r="D181" t="n">
         <v>9381</v>
       </c>
       <c r="E181" t="n">
-        <v>118571107</v>
+        <v>118571358</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -35641,13 +35641,13 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="D691" t="n">
         <v>361</v>
       </c>
       <c r="E691" t="n">
-        <v>4623158</v>
+        <v>4625037</v>
       </c>
       <c r="F691" t="inlineStr">
         <is>
@@ -36151,13 +36151,13 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>17549</v>
+        <v>17550</v>
       </c>
       <c r="D701" t="n">
         <v>3338</v>
       </c>
       <c r="E701" t="n">
-        <v>38605108</v>
+        <v>38608142</v>
       </c>
       <c r="F701" t="inlineStr">
         <is>
@@ -36406,13 +36406,13 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="D706" t="n">
         <v>455</v>
       </c>
       <c r="E706" t="n">
-        <v>4371451</v>
+        <v>4372951</v>
       </c>
       <c r="F706" t="inlineStr">
         <is>
@@ -43087,13 +43087,13 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>40344</v>
+        <v>40347</v>
       </c>
       <c r="D837" t="n">
         <v>4219</v>
       </c>
       <c r="E837" t="n">
-        <v>286611342</v>
+        <v>286637571</v>
       </c>
       <c r="F837" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>21649</v>
+        <v>21651</v>
       </c>
       <c r="D848" t="n">
         <v>4244</v>
       </c>
       <c r="E848" t="n">
-        <v>85535614</v>
+        <v>85565343</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>108540</v>
+        <v>108556</v>
       </c>
       <c r="D852" t="n">
-        <v>19715</v>
+        <v>19716</v>
       </c>
       <c r="E852" t="n">
-        <v>559631826</v>
+        <v>559758314</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>90240</v>
+        <v>90243</v>
       </c>
       <c r="D853" t="n">
         <v>10474</v>
       </c>
       <c r="E853" t="n">
-        <v>232590778</v>
+        <v>232600646</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>182105</v>
+        <v>182117</v>
       </c>
       <c r="D854" t="n">
         <v>17495</v>
       </c>
       <c r="E854" t="n">
-        <v>1646601645</v>
+        <v>1646770250</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>
@@ -44005,13 +44005,13 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>60002</v>
+        <v>60006</v>
       </c>
       <c r="D855" t="n">
         <v>9812</v>
       </c>
       <c r="E855" t="n">
-        <v>286511569</v>
+        <v>286558601</v>
       </c>
       <c r="F855" t="inlineStr">
         <is>
@@ -44107,13 +44107,13 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>23226</v>
+        <v>23227</v>
       </c>
       <c r="D857" t="n">
         <v>4430</v>
       </c>
       <c r="E857" t="n">
-        <v>82707326</v>
+        <v>82709406</v>
       </c>
       <c r="F857" t="inlineStr">
         <is>
@@ -44158,13 +44158,13 @@
         </is>
       </c>
       <c r="C858" t="n">
-        <v>183801</v>
+        <v>183807</v>
       </c>
       <c r="D858" t="n">
         <v>35381</v>
       </c>
       <c r="E858" t="n">
-        <v>552313762</v>
+        <v>552345651</v>
       </c>
       <c r="F858" t="inlineStr">
         <is>
@@ -44209,13 +44209,13 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>51277</v>
+        <v>51281</v>
       </c>
       <c r="D859" t="n">
         <v>6431</v>
       </c>
       <c r="E859" t="n">
-        <v>422387795</v>
+        <v>422551426</v>
       </c>
       <c r="F859" t="inlineStr">
         <is>
@@ -44260,13 +44260,13 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>34638</v>
+        <v>34639</v>
       </c>
       <c r="D860" t="n">
         <v>5556</v>
       </c>
       <c r="E860" t="n">
-        <v>70016899</v>
+        <v>70019984</v>
       </c>
       <c r="F860" t="inlineStr">
         <is>
@@ -44362,13 +44362,13 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>114910</v>
+        <v>114914</v>
       </c>
       <c r="D862" t="n">
         <v>14328</v>
       </c>
       <c r="E862" t="n">
-        <v>417845289</v>
+        <v>418047457</v>
       </c>
       <c r="F862" t="inlineStr">
         <is>
@@ -44413,13 +44413,13 @@
         </is>
       </c>
       <c r="C863" t="n">
-        <v>48501</v>
+        <v>48514</v>
       </c>
       <c r="D863" t="n">
         <v>8874</v>
       </c>
       <c r="E863" t="n">
-        <v>132091445</v>
+        <v>132194989</v>
       </c>
       <c r="F863" t="inlineStr">
         <is>
@@ -45586,13 +45586,13 @@
         </is>
       </c>
       <c r="C886" t="n">
-        <v>40879</v>
+        <v>40882</v>
       </c>
       <c r="D886" t="n">
         <v>8380</v>
       </c>
       <c r="E886" t="n">
-        <v>165444684</v>
+        <v>165457761</v>
       </c>
       <c r="F886" t="inlineStr">
         <is>
@@ -49921,13 +49921,13 @@
         </is>
       </c>
       <c r="C971" t="n">
-        <v>13101</v>
+        <v>13103</v>
       </c>
       <c r="D971" t="n">
         <v>2290</v>
       </c>
       <c r="E971" t="n">
-        <v>32996553</v>
+        <v>33006180</v>
       </c>
       <c r="F971" t="inlineStr">
         <is>
@@ -49972,13 +49972,13 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>4755</v>
+        <v>4756</v>
       </c>
       <c r="D972" t="n">
         <v>729</v>
       </c>
       <c r="E972" t="n">
-        <v>11678220</v>
+        <v>11726703</v>
       </c>
       <c r="F972" t="inlineStr">
         <is>
@@ -50431,13 +50431,13 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>3633</v>
+        <v>3634</v>
       </c>
       <c r="D981" t="n">
         <v>402</v>
       </c>
       <c r="E981" t="n">
-        <v>11097853</v>
+        <v>11192315</v>
       </c>
       <c r="F981" t="inlineStr">
         <is>
@@ -50839,13 +50839,13 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="D989" t="n">
         <v>324</v>
       </c>
       <c r="E989" t="n">
-        <v>7091551</v>
+        <v>7098337</v>
       </c>
       <c r="F989" t="inlineStr">
         <is>
@@ -51706,13 +51706,13 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="D1006" t="n">
         <v>315</v>
       </c>
       <c r="E1006" t="n">
-        <v>4126163</v>
+        <v>4134797</v>
       </c>
       <c r="F1006" t="inlineStr">
         <is>
@@ -68689,13 +68689,13 @@
         </is>
       </c>
       <c r="C1339" t="n">
-        <v>27004</v>
+        <v>27005</v>
       </c>
       <c r="D1339" t="n">
         <v>2942</v>
       </c>
       <c r="E1339" t="n">
-        <v>139537387</v>
+        <v>139546239</v>
       </c>
       <c r="F1339" t="inlineStr">
         <is>
